--- a/DNXRoboto-Regular_V4.4.xlsx
+++ b/DNXRoboto-Regular_V4.4.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fonts projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DFC225-8F71-4F49-AB74-C60BD61D7E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBBB77C-968C-412B-A496-7FE19BE00742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{39CED613-33D1-4A5F-BF2D-566D18152605}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{39CED613-33D1-4A5F-BF2D-566D18152605}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="37">
   <si>
     <t>Unicode</t>
   </si>
@@ -91,12 +92,69 @@
   <si>
     <t>Space Invaders</t>
   </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +172,14 @@
       <color theme="1"/>
       <name val="DNX Roboto 4.4"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DNX Roboto 4.4"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -161,62 +231,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -546,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0936C201-017D-4D93-AFE7-3030CC9CBA70}">
-  <dimension ref="A1:AG70"/>
+  <dimension ref="A1:AT73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -586,13 +617,45 @@
     <col min="30" max="30" width="2" style="3" customWidth="1"/>
     <col min="31" max="31" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8" style="4" customWidth="1"/>
-    <col min="33" max="16384" width="11.42578125" style="4"/>
+    <col min="33" max="36" width="11.42578125" style="4"/>
+    <col min="37" max="37" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="46" width="22" style="9" customWidth="1"/>
+    <col min="47" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
     </row>
     <row r="2" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1363,9 +1426,38 @@
       <c r="N12" s="3"/>
     </row>
     <row r="14" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
     </row>
     <row r="15" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1521,7 +1613,7 @@
         <v></v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A16)+1),4)</f>
         <v>E279</v>
@@ -1603,7 +1695,7 @@
         <v></v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f t="shared" ref="A18:D18" si="32">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A17)+1),4)</f>
         <v>E27A</v>
@@ -1679,7 +1771,7 @@
       <c r="AB18" s="6"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f t="shared" ref="A19:D19" si="40">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A18)+1),4)</f>
         <v>E27B</v>
@@ -1755,7 +1847,7 @@
       <c r="AB19" s="6"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f t="shared" ref="A20:D20" si="42">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A19)+1),4)</f>
         <v>E27C</v>
@@ -1831,7 +1923,7 @@
       <c r="AB20" s="6"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f t="shared" ref="A21:D21" si="44">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A20)+1),4)</f>
         <v>E27D</v>
@@ -1907,7 +1999,7 @@
       <c r="AB21" s="6"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f t="shared" ref="A22:D22" si="46">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A21)+1),4)</f>
         <v>E27E</v>
@@ -1983,7 +2075,7 @@
       <c r="AB22" s="6"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f t="shared" ref="A23:D23" si="48">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A22)+1),4)</f>
         <v>E27F</v>
@@ -2053,7 +2145,7 @@
       <c r="AB23" s="6"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f t="shared" ref="A24:D24" si="50">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A23)+1),4)</f>
         <v>E280</v>
@@ -2123,7 +2215,7 @@
       <c r="AB24" s="6"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="J25" s="6" t="str">
         <f t="shared" si="35"/>
@@ -2136,15 +2228,43 @@
       <c r="M25" s="6"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+    </row>
+    <row r="28" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +2335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A16)+120),4)</f>
         <v>E2F0</v>
@@ -2297,7 +2417,7 @@
         <v></v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A29)+1),4)</f>
         <v>E2F1</v>
@@ -2379,7 +2499,7 @@
         <v></v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="str">
         <f t="shared" ref="A31:D31" si="62">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A30)+1),4)</f>
         <v>E2F2</v>
@@ -2461,7 +2581,7 @@
         <v></v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
         <f t="shared" ref="A32:D32" si="72">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A31)+1),4)</f>
         <v>E2F3</v>
@@ -2979,9 +3099,38 @@
       <c r="AC38" s="3"/>
     </row>
     <row r="40" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
     </row>
     <row r="41" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -3088,52 +3237,52 @@
         <v></v>
       </c>
       <c r="M42" s="6" t="str">
-        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(J52)+1),4)</f>
-        <v>E028</v>
+        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(J51)+1),4)</f>
+        <v>E027</v>
       </c>
       <c r="N42" s="3" t="str">
         <f>_xlfn.UNICHAR(HEX2DEC(M42))</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="P42" s="6" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(M50)+1),4)</f>
-        <v>E031</v>
+        <v>E030</v>
       </c>
       <c r="Q42" s="3" t="str">
         <f>_xlfn.UNICHAR(HEX2DEC(P42))</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="S42" s="6" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(P50)+1),4)</f>
-        <v>E03A</v>
+        <v>E039</v>
       </c>
       <c r="T42" s="3" t="str">
         <f>_xlfn.UNICHAR(HEX2DEC(S42))</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="V42" s="6" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(S51)+1),4)</f>
-        <v>E044</v>
+        <v>E043</v>
       </c>
       <c r="W42" s="3" t="str">
         <f>_xlfn.UNICHAR(HEX2DEC(V42))</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="Y42" s="6" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(V50)+1),4)</f>
-        <v>E04D</v>
+        <v>E04C</v>
       </c>
       <c r="Z42" s="3" t="str">
         <f t="shared" ref="Z42:Z49" si="97">_xlfn.UNICHAR(HEX2DEC(Y42))</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="AB42" s="6" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(Y49)+1),4)</f>
-        <v>E055</v>
+        <v>E054</v>
       </c>
       <c r="AC42" s="3" t="str">
         <f t="shared" ref="AC42:AC48" si="98">_xlfn.UNICHAR(HEX2DEC(AB42))</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="AG42" s="3"/>
     </row>
@@ -3172,51 +3321,51 @@
       </c>
       <c r="M43" s="6" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(M42)+1),4)</f>
-        <v>E029</v>
+        <v>E028</v>
       </c>
       <c r="N43" s="3" t="str">
         <f t="shared" ref="N43:N50" si="102">_xlfn.UNICHAR(HEX2DEC(M43))</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="P43" s="6" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(P42)+1),4)</f>
-        <v>E032</v>
+        <v>E031</v>
       </c>
       <c r="Q43" s="3" t="str">
         <f t="shared" ref="Q43:Q50" si="103">_xlfn.UNICHAR(HEX2DEC(P43))</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="S43" s="6" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(S42)+1),4)</f>
-        <v>E03B</v>
+        <v>E03A</v>
       </c>
       <c r="T43" s="3" t="str">
         <f t="shared" ref="T43:T50" si="104">_xlfn.UNICHAR(HEX2DEC(S43))</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="V43" s="6" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(V42)+1),4)</f>
-        <v>E045</v>
+        <v>E044</v>
       </c>
       <c r="W43" s="3" t="str">
         <f t="shared" ref="W43:W48" si="105">_xlfn.UNICHAR(HEX2DEC(V43))</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="Y43" s="6" t="str">
         <f t="shared" ref="Y43:Y49" si="106">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(Y42)+1),4)</f>
-        <v>E04E</v>
+        <v>E04D</v>
       </c>
       <c r="Z43" s="3" t="str">
         <f t="shared" si="97"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AB43" s="6" t="str">
         <f t="shared" ref="AB43" si="107">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(AB42)+1),4)</f>
-        <v>E056</v>
+        <v>E055</v>
       </c>
       <c r="AC43" s="3" t="str">
         <f t="shared" si="98"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AG43" s="3"/>
     </row>
@@ -3254,52 +3403,52 @@
         <v></v>
       </c>
       <c r="M44" s="6" t="str">
-        <f t="shared" ref="M44:M50" si="112">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(M43)+1),4)</f>
-        <v>E02A</v>
+        <f t="shared" ref="M44:M51" si="112">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(M43)+1),4)</f>
+        <v>E029</v>
       </c>
       <c r="N44" s="3" t="str">
         <f t="shared" si="102"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="P44" s="6" t="str">
         <f t="shared" ref="P44:P50" si="113">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(P43)+1),4)</f>
-        <v>E033</v>
+        <v>E032</v>
       </c>
       <c r="Q44" s="3" t="str">
         <f t="shared" si="103"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="S44" s="6" t="str">
         <f t="shared" ref="S44:S51" si="114">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(S43)+1),4)</f>
-        <v>E03C</v>
+        <v>E03B</v>
       </c>
       <c r="T44" s="3" t="str">
         <f t="shared" si="104"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="V44" s="6" t="str">
         <f t="shared" ref="V44:V50" si="115">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(V43)+1),4)</f>
-        <v>E046</v>
+        <v>E045</v>
       </c>
       <c r="W44" s="3" t="str">
         <f t="shared" si="105"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="Y44" s="6" t="str">
         <f t="shared" si="106"/>
-        <v>E04F</v>
+        <v>E04E</v>
       </c>
       <c r="Z44" s="3" t="str">
         <f t="shared" si="97"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AB44" s="6" t="str">
         <f t="shared" ref="AB44:AB48" si="116">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(AB43)+1),4)</f>
-        <v>E057</v>
+        <v>E056</v>
       </c>
       <c r="AC44" s="3" t="str">
         <f t="shared" si="98"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AG44" s="3"/>
     </row>
@@ -3338,51 +3487,51 @@
       </c>
       <c r="M45" s="6" t="str">
         <f t="shared" si="112"/>
-        <v>E02B</v>
+        <v>E02A</v>
       </c>
       <c r="N45" s="3" t="str">
         <f t="shared" si="102"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="P45" s="6" t="str">
         <f t="shared" si="113"/>
-        <v>E034</v>
+        <v>E033</v>
       </c>
       <c r="Q45" s="3" t="str">
         <f t="shared" si="103"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="S45" s="6" t="str">
         <f t="shared" si="114"/>
-        <v>E03D</v>
+        <v>E03C</v>
       </c>
       <c r="T45" s="3" t="str">
         <f t="shared" si="104"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="V45" s="6" t="str">
         <f t="shared" si="115"/>
-        <v>E047</v>
+        <v>E046</v>
       </c>
       <c r="W45" s="3" t="str">
         <f t="shared" si="105"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="Y45" s="6" t="str">
         <f t="shared" si="106"/>
-        <v>E050</v>
+        <v>E04F</v>
       </c>
       <c r="Z45" s="3" t="str">
         <f t="shared" si="97"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AB45" s="6" t="str">
         <f t="shared" si="116"/>
-        <v>E058</v>
+        <v>E057</v>
       </c>
       <c r="AC45" s="3" t="str">
         <f t="shared" si="98"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AG45" s="3"/>
     </row>
@@ -3421,51 +3570,51 @@
       </c>
       <c r="M46" s="6" t="str">
         <f t="shared" si="112"/>
-        <v>E02C</v>
+        <v>E02B</v>
       </c>
       <c r="N46" s="3" t="str">
         <f t="shared" si="102"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="P46" s="6" t="str">
         <f t="shared" si="113"/>
-        <v>E035</v>
+        <v>E034</v>
       </c>
       <c r="Q46" s="3" t="str">
         <f t="shared" si="103"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="S46" s="6" t="str">
         <f t="shared" si="114"/>
-        <v>E03E</v>
+        <v>E03D</v>
       </c>
       <c r="T46" s="3" t="str">
         <f t="shared" si="104"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="V46" s="6" t="str">
         <f t="shared" si="115"/>
-        <v>E048</v>
+        <v>E047</v>
       </c>
       <c r="W46" s="3" t="str">
         <f t="shared" si="105"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="Y46" s="6" t="str">
         <f t="shared" si="106"/>
-        <v>E051</v>
+        <v>E050</v>
       </c>
       <c r="Z46" s="3" t="str">
         <f t="shared" si="97"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AB46" s="6" t="str">
         <f t="shared" si="116"/>
-        <v>E059</v>
+        <v>E058</v>
       </c>
       <c r="AC46" s="3" t="str">
         <f t="shared" si="98"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AG46" s="3"/>
     </row>
@@ -3504,51 +3653,51 @@
       </c>
       <c r="M47" s="6" t="str">
         <f t="shared" si="112"/>
-        <v>E02D</v>
+        <v>E02C</v>
       </c>
       <c r="N47" s="3" t="str">
         <f t="shared" si="102"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="P47" s="6" t="str">
         <f t="shared" si="113"/>
-        <v>E036</v>
+        <v>E035</v>
       </c>
       <c r="Q47" s="3" t="str">
         <f t="shared" si="103"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="S47" s="6" t="str">
         <f t="shared" si="114"/>
-        <v>E03F</v>
+        <v>E03E</v>
       </c>
       <c r="T47" s="3" t="str">
         <f t="shared" si="104"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="V47" s="6" t="str">
         <f t="shared" si="115"/>
-        <v>E049</v>
+        <v>E048</v>
       </c>
       <c r="W47" s="3" t="str">
         <f t="shared" si="105"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="Y47" s="6" t="str">
         <f t="shared" si="106"/>
-        <v>E052</v>
+        <v>E051</v>
       </c>
       <c r="Z47" s="3" t="str">
         <f t="shared" si="97"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AB47" s="6" t="str">
         <f t="shared" si="116"/>
-        <v>E05A</v>
+        <v>E059</v>
       </c>
       <c r="AC47" s="3" t="str">
         <f t="shared" si="98"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AG47" s="3"/>
     </row>
@@ -3587,55 +3736,55 @@
       </c>
       <c r="M48" s="6" t="str">
         <f t="shared" si="112"/>
-        <v>E02E</v>
+        <v>E02D</v>
       </c>
       <c r="N48" s="3" t="str">
         <f t="shared" si="102"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="P48" s="6" t="str">
         <f t="shared" si="113"/>
-        <v>E037</v>
+        <v>E036</v>
       </c>
       <c r="Q48" s="3" t="str">
         <f t="shared" si="103"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="S48" s="6" t="str">
         <f t="shared" si="114"/>
-        <v>E040</v>
+        <v>E03F</v>
       </c>
       <c r="T48" s="3" t="str">
         <f t="shared" si="104"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="V48" s="6" t="str">
         <f t="shared" si="115"/>
-        <v>E04A</v>
+        <v>E049</v>
       </c>
       <c r="W48" s="3" t="str">
         <f t="shared" si="105"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="Y48" s="6" t="str">
         <f t="shared" si="106"/>
-        <v>E053</v>
+        <v>E052</v>
       </c>
       <c r="Z48" s="3" t="str">
         <f t="shared" si="97"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AB48" s="6" t="str">
         <f t="shared" si="116"/>
-        <v>E05B</v>
+        <v>E05A</v>
       </c>
       <c r="AC48" s="3" t="str">
         <f t="shared" si="98"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AG48" s="3"/>
     </row>
-    <row r="49" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="str">
         <f t="shared" ref="A49:D49" si="125">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A48)+1),4)</f>
         <v>E007</v>
@@ -3670,48 +3819,48 @@
       </c>
       <c r="M49" s="6" t="str">
         <f t="shared" si="112"/>
-        <v>E02F</v>
+        <v>E02E</v>
       </c>
       <c r="N49" s="3" t="str">
         <f t="shared" si="102"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="P49" s="6" t="str">
         <f t="shared" si="113"/>
-        <v>E038</v>
+        <v>E037</v>
       </c>
       <c r="Q49" s="3" t="str">
         <f t="shared" si="103"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="S49" s="6" t="str">
         <f t="shared" si="114"/>
-        <v>E041</v>
+        <v>E040</v>
       </c>
       <c r="T49" s="3" t="str">
         <f t="shared" si="104"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="V49" s="6" t="str">
         <f t="shared" si="115"/>
-        <v>E04B</v>
+        <v>E04A</v>
       </c>
       <c r="W49" s="3" t="str">
         <f t="shared" ref="W49:W50" si="127">_xlfn.UNICHAR(HEX2DEC(V49))</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="Y49" s="6" t="str">
         <f t="shared" si="106"/>
-        <v>E054</v>
+        <v>E053</v>
       </c>
       <c r="Z49" s="3" t="str">
         <f t="shared" si="97"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="AB49" s="6"/>
       <c r="AC49" s="3"/>
     </row>
-    <row r="50" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="str">
         <f t="shared" ref="A50:D50" si="128">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A49)+1),4)</f>
         <v>E008</v>
@@ -3746,42 +3895,42 @@
       </c>
       <c r="M50" s="6" t="str">
         <f t="shared" si="112"/>
-        <v>E030</v>
+        <v>E02F</v>
       </c>
       <c r="N50" s="3" t="str">
         <f t="shared" si="102"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="P50" s="6" t="str">
         <f t="shared" si="113"/>
-        <v>E039</v>
+        <v>E038</v>
       </c>
       <c r="Q50" s="3" t="str">
         <f t="shared" si="103"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="S50" s="6" t="str">
         <f t="shared" si="114"/>
-        <v>E042</v>
+        <v>E041</v>
       </c>
       <c r="T50" s="3" t="str">
         <f t="shared" si="104"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="V50" s="6" t="str">
         <f t="shared" si="115"/>
-        <v>E04C</v>
+        <v>E04B</v>
       </c>
       <c r="W50" s="3" t="str">
         <f t="shared" si="127"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="Y50" s="6"/>
       <c r="Z50" s="3"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="3"/>
     </row>
-    <row r="51" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="D51" s="6" t="str">
         <f t="shared" si="129"/>
@@ -3811,38 +3960,60 @@
       <c r="N51" s="3"/>
       <c r="S51" s="6" t="str">
         <f t="shared" si="114"/>
-        <v>E043</v>
+        <v>E042</v>
       </c>
       <c r="T51" s="3" t="str">
         <f t="shared" ref="T51" si="132">_xlfn.UNICHAR(HEX2DEC(S51))</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="AB51" s="6"/>
       <c r="AC51" s="3"/>
     </row>
-    <row r="52" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J52" s="6" t="str">
-        <f t="shared" si="111"/>
-        <v>E027</v>
-      </c>
-      <c r="K52" s="3" t="str">
-        <f t="shared" ref="K52" si="133">_xlfn.UNICHAR(HEX2DEC(J52))</f>
-        <v></v>
-      </c>
+    <row r="52" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="6"/>
+      <c r="K52" s="3"/>
       <c r="AB52" s="6"/>
       <c r="AC52" s="3"/>
     </row>
-    <row r="53" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AB53" s="6"/>
-      <c r="AC53" s="3"/>
-    </row>
-    <row r="54" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+    </row>
+    <row r="54" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3863,245 +4034,674 @@
       <c r="H54" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB54" s="6"/>
       <c r="AC54" s="3"/>
     </row>
-    <row r="55" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="3" t="str">
-        <f t="shared" ref="B55:B64" si="134">_xlfn.UNICHAR(HEX2DEC(A55))</f>
+        <f t="shared" ref="B55:B73" si="133">_xlfn.UNICHAR(HEX2DEC(A55))</f>
         <v></v>
       </c>
       <c r="D55" s="6" t="str">
-        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A64)+1),4)</f>
-        <v>E06D</v>
+        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A63)+1),4)</f>
+        <v>E06C</v>
       </c>
       <c r="E55" s="3" t="str">
-        <f t="shared" ref="E55:E70" si="135">_xlfn.UNICHAR(HEX2DEC(D55))</f>
-        <v></v>
+        <f t="shared" ref="E55:E65" si="134">_xlfn.UNICHAR(HEX2DEC(D55))</f>
+        <v></v>
       </c>
       <c r="G55" s="6" t="str">
-        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(D62)+1),4)</f>
-        <v>E075</v>
+        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(D64)+1),4)</f>
+        <v>E076</v>
       </c>
       <c r="H55" s="3" t="str">
         <f>_xlfn.UNICHAR(HEX2DEC(G55))</f>
-        <v></v>
+        <v></v>
+      </c>
+      <c r="J55" s="6" t="str">
+        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(G62)+1),4)</f>
+        <v>E07E</v>
+      </c>
+      <c r="K55" s="3" t="str">
+        <f>_xlfn.UNICHAR(HEX2DEC(J55))</f>
+        <v></v>
       </c>
       <c r="AB55" s="6"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK55" s="10"/>
+    </row>
+    <row r="56" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="str">
-        <f t="shared" ref="A56:A61" si="136">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A55)+1),4)</f>
+        <f t="shared" ref="A56:A61" si="135">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A55)+1),4)</f>
         <v>E064</v>
       </c>
       <c r="B56" s="3" t="str">
+        <f t="shared" si="133"/>
+        <v></v>
+      </c>
+      <c r="D56" s="6" t="str">
+        <f t="shared" ref="D55:D65" si="136">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(D55)+1),4)</f>
+        <v>E06D</v>
+      </c>
+      <c r="E56" s="3" t="str">
         <f t="shared" si="134"/>
-        <v></v>
-      </c>
-      <c r="D56" s="6" t="str">
-        <f t="shared" ref="D56:D61" si="137">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(D55)+1),4)</f>
-        <v>E06E</v>
-      </c>
-      <c r="E56" s="3" t="str">
-        <f t="shared" si="135"/>
-        <v></v>
+        <v></v>
       </c>
       <c r="G56" s="6" t="str">
-        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(G55)+1),4)</f>
-        <v>E076</v>
+        <f t="shared" ref="G56:G61" si="137">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(G55)+1),4)</f>
+        <v>E077</v>
       </c>
       <c r="H56" s="3" t="str">
         <f>_xlfn.UNICHAR(HEX2DEC(G56))</f>
-        <v></v>
+        <v></v>
+      </c>
+      <c r="J56" s="6" t="str">
+        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(J55)+1),4)</f>
+        <v>E07F</v>
+      </c>
+      <c r="K56" s="3" t="str">
+        <f>_xlfn.UNICHAR(HEX2DEC(J56))</f>
+        <v></v>
       </c>
       <c r="AB56" s="6"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="str">
+        <f t="shared" si="135"/>
+        <v>E065</v>
+      </c>
+      <c r="B57" s="3" t="str">
+        <f t="shared" si="133"/>
+        <v></v>
+      </c>
+      <c r="D57" s="6" t="str">
         <f t="shared" si="136"/>
-        <v>E065</v>
-      </c>
-      <c r="B57" s="3" t="str">
+        <v>E06E</v>
+      </c>
+      <c r="E57" s="3" t="str">
         <f t="shared" si="134"/>
-        <v></v>
-      </c>
-      <c r="D57" s="6" t="str">
+        <v></v>
+      </c>
+      <c r="G57" s="6" t="str">
         <f t="shared" si="137"/>
-        <v>E06F</v>
-      </c>
-      <c r="E57" s="3" t="str">
-        <f t="shared" si="135"/>
-        <v></v>
-      </c>
-      <c r="G57" s="6" t="str">
-        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(G56)+1),4)</f>
-        <v>E077</v>
+        <v>E078</v>
       </c>
       <c r="H57" s="3" t="str">
         <f>_xlfn.UNICHAR(HEX2DEC(G57))</f>
-        <v></v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v></v>
+      </c>
+      <c r="J57" s="6" t="str">
+        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(J56)+1),4)</f>
+        <v>E080</v>
+      </c>
+      <c r="K57" s="3" t="str">
+        <f>_xlfn.UNICHAR(HEX2DEC(J57))</f>
+        <v></v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="str">
+        <f t="shared" si="135"/>
+        <v>E066</v>
+      </c>
+      <c r="B58" s="3" t="str">
+        <f t="shared" si="133"/>
+        <v></v>
+      </c>
+      <c r="D58" s="6" t="str">
         <f t="shared" si="136"/>
-        <v>E066</v>
-      </c>
-      <c r="B58" s="3" t="str">
+        <v>E06F</v>
+      </c>
+      <c r="E58" s="3" t="str">
         <f t="shared" si="134"/>
-        <v></v>
-      </c>
-      <c r="D58" s="6" t="str">
+        <v></v>
+      </c>
+      <c r="G58" s="6" t="str">
         <f t="shared" si="137"/>
-        <v>E070</v>
-      </c>
-      <c r="E58" s="3" t="str">
-        <f t="shared" si="135"/>
-        <v></v>
-      </c>
-      <c r="G58" s="6" t="str">
-        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(G57)+1),4)</f>
-        <v>E078</v>
+        <v>E079</v>
       </c>
       <c r="H58" s="3" t="str">
         <f>_xlfn.UNICHAR(HEX2DEC(G58))</f>
-        <v></v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v></v>
+      </c>
+      <c r="J58" s="6" t="str">
+        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(J57)+1),4)</f>
+        <v>E081</v>
+      </c>
+      <c r="K58" s="3" t="str">
+        <f>_xlfn.UNICHAR(HEX2DEC(J58))</f>
+        <v></v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="str">
+        <f t="shared" si="135"/>
+        <v>E067</v>
+      </c>
+      <c r="B59" s="3" t="str">
+        <f t="shared" si="133"/>
+        <v></v>
+      </c>
+      <c r="D59" s="6" t="str">
         <f t="shared" si="136"/>
-        <v>E067</v>
-      </c>
-      <c r="B59" s="3" t="str">
+        <v>E070</v>
+      </c>
+      <c r="E59" s="3" t="str">
         <f t="shared" si="134"/>
-        <v></v>
-      </c>
-      <c r="D59" s="6" t="str">
+        <v></v>
+      </c>
+      <c r="G59" s="6" t="str">
         <f t="shared" si="137"/>
-        <v>E071</v>
-      </c>
-      <c r="E59" s="3" t="str">
-        <f t="shared" si="135"/>
-        <v></v>
-      </c>
-      <c r="G59" s="6" t="str">
-        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(G58)+1),4)</f>
-        <v>E079</v>
+        <v>E07A</v>
       </c>
       <c r="H59" s="3" t="str">
         <f>_xlfn.UNICHAR(HEX2DEC(G59))</f>
-        <v></v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v></v>
+      </c>
+      <c r="J59" s="6" t="str">
+        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(J58)+1),4)</f>
+        <v>E082</v>
+      </c>
+      <c r="K59" s="3" t="str">
+        <f>_xlfn.UNICHAR(HEX2DEC(J59))</f>
+        <v></v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="str">
+        <f t="shared" si="135"/>
+        <v>E068</v>
+      </c>
+      <c r="B60" s="3" t="str">
+        <f t="shared" si="133"/>
+        <v></v>
+      </c>
+      <c r="D60" s="6" t="str">
         <f t="shared" si="136"/>
-        <v>E068</v>
-      </c>
-      <c r="B60" s="3" t="str">
+        <v>E071</v>
+      </c>
+      <c r="E60" s="3" t="str">
         <f t="shared" si="134"/>
-        <v></v>
-      </c>
-      <c r="D60" s="6" t="str">
+        <v></v>
+      </c>
+      <c r="G60" s="6" t="str">
         <f t="shared" si="137"/>
-        <v>E072</v>
-      </c>
-      <c r="E60" s="3" t="str">
-        <f t="shared" si="135"/>
-        <v></v>
-      </c>
-      <c r="G60" s="6" t="str">
-        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(G59)+1),4)</f>
-        <v>E07A</v>
+        <v>E07B</v>
       </c>
       <c r="H60" s="3" t="str">
         <f>_xlfn.UNICHAR(HEX2DEC(G60))</f>
-        <v></v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v></v>
+      </c>
+      <c r="J60" s="6" t="str">
+        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(J59)+1),4)</f>
+        <v>E083</v>
+      </c>
+      <c r="K60" s="3" t="str">
+        <f>_xlfn.UNICHAR(HEX2DEC(J60))</f>
+        <v></v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="str">
+        <f t="shared" si="135"/>
+        <v>E069</v>
+      </c>
+      <c r="B61" s="3" t="str">
+        <f t="shared" si="133"/>
+        <v></v>
+      </c>
+      <c r="D61" s="6" t="str">
         <f t="shared" si="136"/>
-        <v>E069</v>
-      </c>
-      <c r="B61" s="3" t="str">
+        <v>E072</v>
+      </c>
+      <c r="E61" s="3" t="str">
         <f t="shared" si="134"/>
-        <v></v>
-      </c>
-      <c r="D61" s="6" t="str">
+        <v></v>
+      </c>
+      <c r="G61" s="6" t="str">
         <f t="shared" si="137"/>
-        <v>E073</v>
-      </c>
-      <c r="E61" s="3" t="str">
-        <f t="shared" si="135"/>
-        <v></v>
-      </c>
-      <c r="G61" s="6" t="str">
-        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(G60)+1),4)</f>
-        <v>E07B</v>
+        <v>E07C</v>
       </c>
       <c r="H61" s="3" t="str">
         <f>_xlfn.UNICHAR(HEX2DEC(G61))</f>
-        <v></v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v></v>
+      </c>
+      <c r="J61" s="6" t="str">
+        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(J60)+1),4)</f>
+        <v>E084</v>
+      </c>
+      <c r="K61" s="3" t="str">
+        <f>_xlfn.UNICHAR(HEX2DEC(J61))</f>
+        <v></v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="str">
         <f t="shared" ref="A62:A64" si="138">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A61)+1),4)</f>
         <v>E06A</v>
       </c>
       <c r="B62" s="3" t="str">
+        <f t="shared" si="133"/>
+        <v></v>
+      </c>
+      <c r="D62" s="6" t="str">
+        <f t="shared" si="136"/>
+        <v>E073</v>
+      </c>
+      <c r="E62" s="3" t="str">
         <f t="shared" si="134"/>
-        <v></v>
-      </c>
-      <c r="D62" s="6" t="str">
-        <f t="shared" ref="D62:D70" si="139">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(D61)+1),4)</f>
-        <v>E074</v>
-      </c>
-      <c r="E62" s="3" t="str">
-        <f t="shared" si="135"/>
-        <v></v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v></v>
+      </c>
+      <c r="G62" s="6" t="str">
+        <f>RIGHT("0000"&amp;DEC2HEX(HEX2DEC(G61)+1),4)</f>
+        <v>E07D</v>
+      </c>
+      <c r="H62" s="3" t="str">
+        <f>_xlfn.UNICHAR(HEX2DEC(G62))</f>
+        <v></v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="str">
         <f t="shared" si="138"/>
         <v>E06B</v>
       </c>
       <c r="B63" s="3" t="str">
+        <f t="shared" si="133"/>
+        <v></v>
+      </c>
+      <c r="D63" s="6" t="str">
+        <f t="shared" ref="D63:D64" si="139">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(D62)+1),4)</f>
+        <v>E074</v>
+      </c>
+      <c r="E63" s="3" t="str">
         <f t="shared" si="134"/>
-        <v></v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v></v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="str">
         <f t="shared" si="138"/>
         <v>E06C</v>
       </c>
       <c r="B64" s="3" t="str">
+        <f t="shared" si="133"/>
+        <v></v>
+      </c>
+      <c r="D64" s="6" t="str">
+        <f t="shared" si="139"/>
+        <v>E075</v>
+      </c>
+      <c r="E64" s="3" t="str">
         <f t="shared" si="134"/>
-        <v></v>
+        <v></v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="A65" s="6" t="str">
+        <f t="shared" ref="A65:A67" si="140">RIGHT("0000"&amp;DEC2HEX(HEX2DEC(A64)+1),4)</f>
+        <v>E06D</v>
+      </c>
+      <c r="B65" s="3" t="str">
+        <f t="shared" si="133"/>
+        <v></v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
     </row>
     <row r="70" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A13 A26 A39 A52 A66:A1048576" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A13 A26 A39 A52 A74:A1048576" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414CB8B0-F135-457A-B533-F5A6F62710F4}">
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="21" width="7" style="10" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DNXRoboto-Regular_V4.4.xlsx
+++ b/DNXRoboto-Regular_V4.4.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fonts projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBBB77C-968C-412B-A496-7FE19BE00742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43C762E-1688-47A1-90BB-E812D69DC113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{39CED613-33D1-4A5F-BF2D-566D18152605}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{39CED613-33D1-4A5F-BF2D-566D18152605}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Unicodes" sheetId="1" r:id="rId1"/>
+    <sheet name="Maze Example" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,6 +93,9 @@
     <t>Space Invaders</t>
   </si>
   <si>
+    <t></t>
+  </si>
+  <si>
     <t></t>
   </si>
   <si>
@@ -118,9 +121,6 @@
   </si>
   <si>
     <t></t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
   </si>
   <si>
     <t></t>
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,12 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="DNX Roboto 4.4"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="DNX Roboto 4.4"/>
     </font>
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -242,6 +248,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0936C201-017D-4D93-AFE7-3030CC9CBA70}">
   <dimension ref="A1:AT73"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55:E64"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4048,7 +4060,7 @@
       <c r="A55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="3" t="str">
+      <c r="B55" s="12" t="str">
         <f t="shared" ref="B55:B73" si="133">_xlfn.UNICHAR(HEX2DEC(A55))</f>
         <v></v>
       </c>
@@ -4397,11 +4409,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414CB8B0-F135-457A-B533-F5A6F62710F4}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4410,32 +4420,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>27</v>
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>28</v>
@@ -4446,16 +4468,19 @@
     </row>
     <row r="5" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>31</v>
@@ -4466,16 +4491,19 @@
     </row>
     <row r="6" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>28</v>
@@ -4483,7 +4511,10 @@
     </row>
     <row r="7" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>28</v>
@@ -4494,7 +4525,10 @@
     </row>
     <row r="8" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>28</v>
@@ -4505,33 +4539,39 @@
     </row>
     <row r="9" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>28</v>
@@ -4541,6 +4581,9 @@
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="B11" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="M11" s="10" t="s">
         <v>28</v>
       </c>
@@ -4549,8 +4592,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>29</v>
+      <c r="B12" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>28</v>
@@ -4560,145 +4603,100 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="J13" s="10" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="O13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="M14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="M15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="O15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="P16" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="16:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S17" s="10" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
